--- a/Server/Server/GameData/Weapon_Stat.xlsx
+++ b/Server/Server/GameData/Weapon_Stat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Server\Server\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29EF2009-BF02-4E9B-8818-D9D1E25C74DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2AF514-33F9-4466-A2BA-16FBA4EB0257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon_Stat" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>무기 정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,7 +74,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테스트 무기</t>
+    <t>후라이팬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야구방망이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,24 +532,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A44DD5-7D06-438B-9FE5-436D9EFF504F}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.4140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -558,7 +562,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -581,9 +585,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -594,10 +598,36 @@
       <c r="D3">
         <v>10</v>
       </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>15</v>
       </c>
     </row>
@@ -770,18 +800,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -803,6 +833,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
@@ -816,12 +854,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Server/Server/GameData/Weapon_Stat.xlsx
+++ b/Server/Server/GameData/Weapon_Stat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Server\Server\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2AF514-33F9-4466-A2BA-16FBA4EB0257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EACC897-6F9A-4E1C-9C9F-7ACA9E79FF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
@@ -535,7 +535,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -587,7 +587,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>2001</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>2002</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -642,6 +642,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101000168296C255B5D46B72DA629862DD870" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="a688b941d50903c1d18649d8c0763796">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="216f0c87-b1ea-4333-b2c4-608be75d64b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff4785467fc8158ecbe8e36ba569b54a" ns3:_="">
     <xsd:import namespace="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
@@ -799,22 +814,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ACDFD5-C600-4A9D-A2FF-B29B86319DE6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -830,28 +854,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Server/Server/GameData/Weapon_Stat.xlsx
+++ b/Server/Server/GameData/Weapon_Stat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Server\Server\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EACC897-6F9A-4E1C-9C9F-7ACA9E79FF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826617E2-D003-4D50-A8A4-B143BFCED3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon_Stat" sheetId="1" r:id="rId1"/>
@@ -36,11 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>무기 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,15 +46,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>무기 스탯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Weapon_Power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon_Limit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -86,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,15 +92,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -121,7 +100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,18 +109,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -158,35 +131,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -195,8 +147,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,131 +487,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A44DD5-7D06-438B-9FE5-436D9EFF504F}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>2001</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2001</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2002</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101000168296C255B5D46B72DA629862DD870" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="a688b941d50903c1d18649d8c0763796">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="216f0c87-b1ea-4333-b2c4-608be75d64b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff4785467fc8158ecbe8e36ba569b54a" ns3:_="">
     <xsd:import namespace="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
@@ -814,31 +726,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ACDFD5-C600-4A9D-A2FF-B29B86319DE6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -854,4 +757,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Server/Server/GameData/Weapon_Stat.xlsx
+++ b/Server/Server/GameData/Weapon_Stat.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Server\Server\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F7AD2A-74D6-4048-B956-C749E67B1FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35811A1D-D63F-4655-841C-378DEB03D197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
   <sheets>
-    <sheet name="Weapon_Stat" sheetId="1" r:id="rId1"/>
+    <sheet name="Weapon_List" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,12 +116,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -528,19 +522,19 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -560,7 +554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2001</v>
       </c>
@@ -580,7 +574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2002</v>
       </c>
@@ -608,6 +602,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101000168296C255B5D46B72DA629862DD870" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="a688b941d50903c1d18649d8c0763796">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="216f0c87-b1ea-4333-b2c4-608be75d64b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff4785467fc8158ecbe8e36ba569b54a" ns3:_="">
     <xsd:import namespace="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
@@ -765,12 +765,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -781,6 +775,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ACDFD5-C600-4A9D-A2FF-B29B86319DE6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -798,22 +808,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
   <ds:schemaRefs>

--- a/Server/Server/GameData/Weapon_Stat.xlsx
+++ b/Server/Server/GameData/Weapon_Stat.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Server\Server\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\FestivalTownProject\Client\Assets\02. Scripts\Parse\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35811A1D-D63F-4655-841C-378DEB03D197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8191884D-C0C3-4D81-ACFB-7D4EA64229F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
+    <workbookView xWindow="-23895" yWindow="1800" windowWidth="22680" windowHeight="11295" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
   <sheets>
-    <sheet name="Weapon_List" sheetId="1" r:id="rId1"/>
+    <sheet name="Stat" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,10 +57,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name(Info)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -85,6 +81,10 @@
   </si>
   <si>
     <t>야구방망이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,44 +522,44 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2001</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -574,12 +574,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2002</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>10</v>

--- a/Server/Server/GameData/Weapon_Stat.xlsx
+++ b/Server/Server/GameData/Weapon_Stat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Server\Server\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35811A1D-D63F-4655-841C-378DEB03D197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDFB3B8-62D2-4429-A165-5A824B4799F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon_List" sheetId="1" r:id="rId1"/>
@@ -54,13 +54,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name(Info)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -76,15 +72,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Weapon_StaminaConsume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>후라이팬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>야구방망이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_StaminaConsume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_Speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A44DD5-7D06-438B-9FE5-436D9EFF504F}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -530,36 +534,40 @@
     <col min="1" max="1" width="6.08203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2001</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -568,18 +576,21 @@
         <v>1.4</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2002</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -588,9 +599,12 @@
         <v>1.4</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>15</v>
       </c>
     </row>
@@ -608,6 +622,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101000168296C255B5D46B72DA629862DD870" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="a688b941d50903c1d18649d8c0763796">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="216f0c87-b1ea-4333-b2c4-608be75d64b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff4785467fc8158ecbe8e36ba569b54a" ns3:_="">
     <xsd:import namespace="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
@@ -765,15 +788,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
   <ds:schemaRefs>
@@ -791,6 +805,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ACDFD5-C600-4A9D-A2FF-B29B86319DE6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -806,12 +828,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Server/Server/GameData/Weapon_Stat.xlsx
+++ b/Server/Server/GameData/Weapon_Stat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\FestivalTownProject\Client\Assets\02. Scripts\Parse\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\porject\fix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8191884D-C0C3-4D81-ACFB-7D4EA64229F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4202EB-7273-4598-8176-FE0CE771F055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23895" yWindow="1800" windowWidth="22680" windowHeight="11295" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +85,10 @@
   </si>
   <si>
     <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_Speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,22 +523,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A44DD5-7D06-438B-9FE5-436D9EFF504F}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,13 +553,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2001</v>
       </c>
@@ -568,13 +576,16 @@
         <v>1.4</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2002</v>
       </c>
@@ -588,9 +599,12 @@
         <v>1.4</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>15</v>
       </c>
     </row>
@@ -602,12 +616,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101000168296C255B5D46B72DA629862DD870" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="a688b941d50903c1d18649d8c0763796">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="216f0c87-b1ea-4333-b2c4-608be75d64b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff4785467fc8158ecbe8e36ba569b54a" ns3:_="">
     <xsd:import namespace="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
@@ -765,6 +773,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -775,22 +789,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ACDFD5-C600-4A9D-A2FF-B29B86319DE6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -808,6 +806,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
   <ds:schemaRefs>

--- a/Server/Server/GameData/Weapon_Stat.xlsx
+++ b/Server/Server/GameData/Weapon_Stat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\porject\fix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4202EB-7273-4598-8176-FE0CE771F055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0BB0A9-F665-4250-948C-FC31D53D450B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
@@ -526,7 +526,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -570,7 +570,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>1.4</v>
@@ -593,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>1.4</v>
@@ -616,6 +616,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101000168296C255B5D46B72DA629862DD870" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="a688b941d50903c1d18649d8c0763796">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="216f0c87-b1ea-4333-b2c4-608be75d64b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff4785467fc8158ecbe8e36ba569b54a" ns3:_="">
     <xsd:import namespace="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
@@ -773,12 +779,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -789,6 +789,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ACDFD5-C600-4A9D-A2FF-B29B86319DE6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -806,22 +822,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
   <ds:schemaRefs>
